--- a/Oz du Soleil/Oz du Soleil Challenge 5.xlsx
+++ b/Oz du Soleil/Oz du Soleil Challenge 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29204"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29f448ec057303af/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29f448ec057303af/== Github Repos/Challenges/Oz du Soleil/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="164" documentId="8_{F219E752-2941-415C-97D7-4C81E5B890FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46988524-15C2-48DD-96C0-35FF608D526C}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{2EE4E2C9-71E1-4991-A954-12CA6EA0CC03}"/>
+    <workbookView xWindow="7845" yWindow="6300" windowWidth="38700" windowHeight="15345" xr2:uid="{2EE4E2C9-71E1-4991-A954-12CA6EA0CC03}"/>
   </bookViews>
   <sheets>
     <sheet name="Challenge5" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -218,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1F8A6-ABE5-4749-80BF-5362073F149F}">
   <dimension ref="B4:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
